--- a/biology/Botanique/Jacques_Anglade/Jacques_Anglade.xlsx
+++ b/biology/Botanique/Jacques_Anglade/Jacques_Anglade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Anglade est un ingénieur en structure bois.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Jacques Anglade étudie l'ingénierie hydraulique avant de devenir charpentier en 1978[1]. Il se spécialise dans la construction en bois et est titulaire d'un certificat d’études approfondies, puis du postgrade Ibois passé à l’Ecole polytechnique fédérale de Lausanne avec les spécialistes Julius Natterer, Roland Schweitzer et Jean-Luc Sandoz[2].
-Carrière
-Jacques Anglade est un ingénieur en structure bois[3],[4].
-Il est connu pour faire de la charpente traditionnelle japonaise[5] et des passerelles en bois[6].
-En 2011, il contribue à la conception du théâtre éphémère, en bois, pour la Comédie française , dans Galerie d'Orléans du Palais-Royal[7]. 
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Anglade étudie l'ingénierie hydraulique avant de devenir charpentier en 1978. Il se spécialise dans la construction en bois et est titulaire d'un certificat d’études approfondies, puis du postgrade Ibois passé à l’Ecole polytechnique fédérale de Lausanne avec les spécialistes Julius Natterer, Roland Schweitzer et Jean-Luc Sandoz.
 </t>
         </is>
       </c>
@@ -544,12 +557,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Anglade est un ingénieur en structure bois,.
+Il est connu pour faire de la charpente traditionnelle japonaise et des passerelles en bois.
+En 2011, il contribue à la conception du théâtre éphémère, en bois, pour la Comédie française , dans Galerie d'Orléans du Palais-Royal. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Anglade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Anglade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Anglade, dans la lignée de ses mentors dénonce l'usage des bois industriels et préfère les bois massifs, dit low tech[8]. Il privilégie le bois peu transformé et local[9],[10]. Il intègre le projet de la Fédération nationale des communes forestière en construisant en bâtiment pour le Conseil général d'Isère, en filière courte certifié bois des Alpes[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Anglade, dans la lignée de ses mentors dénonce l'usage des bois industriels et préfère les bois massifs, dit low tech. Il privilégie le bois peu transformé et local,. Il intègre le projet de la Fédération nationale des communes forestière en construisant en bâtiment pour le Conseil général d'Isère, en filière courte certifié bois des Alpes.
 </t>
         </is>
       </c>
